--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.022321.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.022321.xlsx_with_dialog_acts.xlsx
@@ -727,12 +727,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2415,12 +2415,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3049,12 +3049,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3847,12 +3847,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4645,12 +4645,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5361,12 +5361,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6285,12 +6285,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7083,12 +7083,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9961,12 +9961,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10971,12 +10971,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11945,12 +11945,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12197,12 +12197,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12281,12 +12281,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13287,12 +13287,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13539,12 +13539,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13791,12 +13791,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14547,12 +14547,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14631,12 +14631,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14715,12 +14715,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14755,12 +14755,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14919,12 +14919,12 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14959,12 +14959,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15119,12 +15119,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -15203,12 +15203,12 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15243,12 +15243,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15283,12 +15283,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15323,12 +15323,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15443,12 +15443,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15523,12 +15523,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15563,12 +15563,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15603,12 +15603,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15963,12 +15963,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16127,12 +16127,12 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16167,12 +16167,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16207,12 +16207,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16571,12 +16571,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16815,12 +16815,12 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16855,12 +16855,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17095,12 +17095,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17699,12 +17699,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17859,12 +17859,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18059,12 +18059,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18139,12 +18139,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18499,12 +18499,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18539,12 +18539,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18579,12 +18579,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18779,12 +18779,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19303,12 +19303,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20551,12 +20551,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20711,12 +20711,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20791,12 +20791,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23279,12 +23279,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23563,12 +23563,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24123,12 +24123,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24407,12 +24407,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24447,12 +24447,12 @@
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24607,12 +24607,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25127,12 +25127,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25447,12 +25447,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25567,12 +25567,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
